--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.020062</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H2">
-        <v>3.060186</v>
+        <v>0.109336</v>
       </c>
       <c r="I2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9773006666666667</v>
+        <v>0.1949313333333333</v>
       </c>
       <c r="N2">
-        <v>2.931902</v>
+        <v>0.5847939999999999</v>
       </c>
       <c r="O2">
-        <v>0.2404260176543542</v>
+        <v>0.07226189720071244</v>
       </c>
       <c r="P2">
-        <v>0.2404260176543543</v>
+        <v>0.07226189720071244</v>
       </c>
       <c r="Q2">
-        <v>0.9969072726413334</v>
+        <v>0.007104337420444445</v>
       </c>
       <c r="R2">
-        <v>8.972165453772002</v>
+        <v>0.06393903678399999</v>
       </c>
       <c r="S2">
-        <v>0.006516148822548128</v>
+        <v>0.0004019174437234363</v>
       </c>
       <c r="T2">
-        <v>0.00651614882254813</v>
+        <v>0.0004019174437234363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.020062</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H3">
-        <v>3.060186</v>
+        <v>0.109336</v>
       </c>
       <c r="I3">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J3">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.306976000000001</v>
       </c>
       <c r="O3">
-        <v>0.5171936589700435</v>
+        <v>0.779341189135594</v>
       </c>
       <c r="P3">
-        <v>0.5171936589700435</v>
+        <v>0.7793411891355941</v>
       </c>
       <c r="Q3">
-        <v>2.144502184170667</v>
+        <v>0.07661994754844445</v>
       </c>
       <c r="R3">
-        <v>19.300519657536</v>
+        <v>0.6895795279360001</v>
       </c>
       <c r="S3">
-        <v>0.01401724690533289</v>
+        <v>0.004334660874675635</v>
       </c>
       <c r="T3">
-        <v>0.01401724690533289</v>
+        <v>0.004334660874675636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.03644533333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.109336</v>
+      </c>
+      <c r="I4">
+        <v>0.005561955322140003</v>
+      </c>
+      <c r="J4">
+        <v>0.005561955322140003</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>1.020062</v>
-      </c>
-      <c r="H4">
-        <v>3.060186</v>
-      </c>
-      <c r="I4">
-        <v>0.02710251114301613</v>
-      </c>
-      <c r="J4">
-        <v>0.02710251114301613</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.9852446666666665</v>
+        <v>0.4003106666666666</v>
       </c>
       <c r="N4">
-        <v>2.955734</v>
+        <v>1.200932</v>
       </c>
       <c r="O4">
-        <v>0.2423803233756023</v>
+        <v>0.1483969136636935</v>
       </c>
       <c r="P4">
-        <v>0.2423803233756023</v>
+        <v>0.1483969136636935</v>
       </c>
       <c r="Q4">
-        <v>1.005010645169333</v>
+        <v>0.01458945568355556</v>
       </c>
       <c r="R4">
-        <v>9.045095806523999</v>
+        <v>0.131305101152</v>
       </c>
       <c r="S4">
-        <v>0.006569115415135113</v>
+        <v>0.0008253770037409307</v>
       </c>
       <c r="T4">
-        <v>0.006569115415135114</v>
+        <v>0.0008253770037409307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.61711466666667</v>
+        <v>6.516166333333334</v>
       </c>
       <c r="H5">
-        <v>109.851344</v>
+        <v>19.548499</v>
       </c>
       <c r="I5">
-        <v>0.9728974888569838</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="J5">
-        <v>0.9728974888569839</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9773006666666667</v>
+        <v>0.1949313333333333</v>
       </c>
       <c r="N5">
-        <v>2.931902</v>
+        <v>0.5847939999999999</v>
       </c>
       <c r="O5">
-        <v>0.2404260176543542</v>
+        <v>0.07226189720071244</v>
       </c>
       <c r="P5">
-        <v>0.2404260176543543</v>
+        <v>0.07226189720071244</v>
       </c>
       <c r="Q5">
-        <v>35.78593057514311</v>
+        <v>1.270204991578444</v>
       </c>
       <c r="R5">
-        <v>322.073375176288</v>
+        <v>11.431844924206</v>
       </c>
       <c r="S5">
-        <v>0.2339098688318061</v>
+        <v>0.071859979756989</v>
       </c>
       <c r="T5">
-        <v>0.2339098688318061</v>
+        <v>0.071859979756989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.61711466666667</v>
+        <v>6.516166333333334</v>
       </c>
       <c r="H6">
-        <v>109.851344</v>
+        <v>19.548499</v>
       </c>
       <c r="I6">
-        <v>0.9728974888569838</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="J6">
-        <v>0.9728974888569839</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>6.306976000000001</v>
       </c>
       <c r="O6">
-        <v>0.5171936589700435</v>
+        <v>0.779341189135594</v>
       </c>
       <c r="P6">
-        <v>0.5171936589700435</v>
+        <v>0.7793411891355941</v>
       </c>
       <c r="Q6">
-        <v>76.98108779730489</v>
+        <v>13.69910155878044</v>
       </c>
       <c r="R6">
-        <v>692.8297901757441</v>
+        <v>123.291914029024</v>
       </c>
       <c r="S6">
-        <v>0.5031764120647106</v>
+        <v>0.7750065282609184</v>
       </c>
       <c r="T6">
-        <v>0.5031764120647106</v>
+        <v>0.7750065282609185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.61711466666667</v>
+        <v>6.516166333333334</v>
       </c>
       <c r="H7">
-        <v>109.851344</v>
+        <v>19.548499</v>
       </c>
       <c r="I7">
-        <v>0.9728974888569838</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="J7">
-        <v>0.9728974888569839</v>
+        <v>0.99443804467786</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.9852446666666665</v>
+        <v>0.4003106666666666</v>
       </c>
       <c r="N7">
-        <v>2.955734</v>
+        <v>1.200932</v>
       </c>
       <c r="O7">
-        <v>0.2423803233756023</v>
+        <v>0.1483969136636935</v>
       </c>
       <c r="P7">
-        <v>0.2423803233756023</v>
+        <v>0.1483969136636935</v>
       </c>
       <c r="Q7">
-        <v>36.0768169340551</v>
+        <v>2.608490889007555</v>
       </c>
       <c r="R7">
-        <v>324.691352406496</v>
+        <v>23.476418001068</v>
       </c>
       <c r="S7">
-        <v>0.2358112079604671</v>
+        <v>0.1475715366599526</v>
       </c>
       <c r="T7">
-        <v>0.2358112079604671</v>
+        <v>0.1475715366599526</v>
       </c>
     </row>
   </sheetData>
